--- a/SMB_PERU.xlsx
+++ b/SMB_PERU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldo Cuneo\Documents\Data Driven Security\My_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8482E-EA29-4F51-B730-54EC1D765FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25D9D79-89BE-442F-B267-0BA00D6D57F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3DECC4A2-AB36-4D91-BFC3-36E955AEF641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DECC4A2-AB36-4D91-BFC3-36E955AEF641}"/>
   </bookViews>
   <sheets>
     <sheet name="autonomous_system.name" sheetId="1" r:id="rId1"/>
@@ -891,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D538A737-130C-4BBF-BD09-129A5C1D34B3}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1253,12 @@
       </c>
       <c r="B44" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>SUM(B2:B44)</f>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -1307,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC4309-C403-4586-A511-2B1E325EFB51}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,6 +1956,12 @@
         <v>1</v>
       </c>
       <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f>SUM(B2:B79)</f>
+        <v>1082</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2040,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7EF7E-A67D-47C4-B3F5-0E7DA2320FD2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
